--- a/inst/extdata/nps_extflow_lakemanatee.xlsx
+++ b/inst/extdata/nps_extflow_lakemanatee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashawverkarnitz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\tbeploads\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E8B2ADF-248F-4B68-B144-2C894679A677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21CCD8A-C1BD-40FA-905B-93CB1A5660A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{54D331FE-E99A-4C12-955F-D8886ED7CA08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54D331FE-E99A-4C12-955F-D8886ED7CA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,8 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -98,9 +102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +142,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -244,7 +248,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,7 +390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -394,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB90E54-4FB8-4CA6-AAE4-6A1550C0C95E}">
-  <dimension ref="A1:B1096"/>
+  <dimension ref="A1:B1462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1018" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A1432" workbookViewId="0">
+      <selection activeCell="C1090" sqref="C1090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9171,6 +9175,2934 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1097" s="3">
+        <v>45292</v>
+      </c>
+      <c r="B1097" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1098" s="3">
+        <v>45293</v>
+      </c>
+      <c r="B1098" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1099" s="3">
+        <v>45294</v>
+      </c>
+      <c r="B1099" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1100" s="3">
+        <v>45295</v>
+      </c>
+      <c r="B1100" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1101" s="3">
+        <v>45296</v>
+      </c>
+      <c r="B1101" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1102" s="3">
+        <v>45297</v>
+      </c>
+      <c r="B1102" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1103" s="3">
+        <v>45298</v>
+      </c>
+      <c r="B1103" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1104" s="3">
+        <v>45299</v>
+      </c>
+      <c r="B1104" s="4">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1105" s="3">
+        <v>45300</v>
+      </c>
+      <c r="B1105" s="4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1106" s="3">
+        <v>45301</v>
+      </c>
+      <c r="B1106" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1107" s="3">
+        <v>45302</v>
+      </c>
+      <c r="B1107" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1108" s="3">
+        <v>45303</v>
+      </c>
+      <c r="B1108" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1109" s="3">
+        <v>45304</v>
+      </c>
+      <c r="B1109" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1110" s="3">
+        <v>45305</v>
+      </c>
+      <c r="B1110" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1111" s="3">
+        <v>45306</v>
+      </c>
+      <c r="B1111" s="4">
+        <v>104.56</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1112" s="3">
+        <v>45307</v>
+      </c>
+      <c r="B1112" s="4">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1113" s="3">
+        <v>45308</v>
+      </c>
+      <c r="B1113" s="4">
+        <v>361.85</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1114" s="3">
+        <v>45309</v>
+      </c>
+      <c r="B1114" s="4">
+        <v>247.63</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1115" s="3">
+        <v>45310</v>
+      </c>
+      <c r="B1115" s="4">
+        <v>248.04</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1116" s="3">
+        <v>45311</v>
+      </c>
+      <c r="B1116" s="4">
+        <v>148.53</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1117" s="3">
+        <v>45312</v>
+      </c>
+      <c r="B1117" s="4">
+        <v>44.03</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1118" s="3">
+        <v>45313</v>
+      </c>
+      <c r="B1118" s="4">
+        <v>156.16999999999999</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1119" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B1119" s="4">
+        <v>155.85</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1120" s="3">
+        <v>45315</v>
+      </c>
+      <c r="B1120" s="4">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1121" s="3">
+        <v>45316</v>
+      </c>
+      <c r="B1121" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1122" s="3">
+        <v>45317</v>
+      </c>
+      <c r="B1122" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1123" s="3">
+        <v>45318</v>
+      </c>
+      <c r="B1123" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1124" s="3">
+        <v>45319</v>
+      </c>
+      <c r="B1124" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1125" s="3">
+        <v>45320</v>
+      </c>
+      <c r="B1125" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1126" s="3">
+        <v>45321</v>
+      </c>
+      <c r="B1126" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1127" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B1127" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1128" s="3">
+        <v>45323</v>
+      </c>
+      <c r="B1128" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1129" s="3">
+        <v>45324</v>
+      </c>
+      <c r="B1129" s="4">
+        <v>34.18</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1130" s="3">
+        <v>45325</v>
+      </c>
+      <c r="B1130" s="4">
+        <v>216.14</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1131" s="3">
+        <v>45326</v>
+      </c>
+      <c r="B1131" s="4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1132" s="3">
+        <v>45327</v>
+      </c>
+      <c r="B1132" s="4">
+        <v>129.52000000000001</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1133" s="3">
+        <v>45328</v>
+      </c>
+      <c r="B1133" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1134" s="3">
+        <v>45329</v>
+      </c>
+      <c r="B1134" s="4">
+        <v>129.46</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1135" s="3">
+        <v>45330</v>
+      </c>
+      <c r="B1135" s="4">
+        <v>123.46</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1136" s="3">
+        <v>45331</v>
+      </c>
+      <c r="B1136" s="4">
+        <v>123.62</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1137" s="3">
+        <v>45332</v>
+      </c>
+      <c r="B1137" s="4">
+        <v>123.52</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1138" s="3">
+        <v>45333</v>
+      </c>
+      <c r="B1138" s="4">
+        <v>129.35</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1139" s="3">
+        <v>45334</v>
+      </c>
+      <c r="B1139" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1140" s="3">
+        <v>45335</v>
+      </c>
+      <c r="B1140" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1141" s="3">
+        <v>45336</v>
+      </c>
+      <c r="B1141" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1142" s="3">
+        <v>45337</v>
+      </c>
+      <c r="B1142" s="4">
+        <v>126.63</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1143" s="3">
+        <v>45338</v>
+      </c>
+      <c r="B1143" s="4">
+        <v>188.97</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1144" s="3">
+        <v>45339</v>
+      </c>
+      <c r="B1144" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1145" s="3">
+        <v>45340</v>
+      </c>
+      <c r="B1145" s="4">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1146" s="3">
+        <v>45341</v>
+      </c>
+      <c r="B1146" s="4">
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1147" s="3">
+        <v>45342</v>
+      </c>
+      <c r="B1147" s="4">
+        <v>368.84</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1148" s="3">
+        <v>45343</v>
+      </c>
+      <c r="B1148" s="4">
+        <v>308.56</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1149" s="3">
+        <v>45344</v>
+      </c>
+      <c r="B1149" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1150" s="3">
+        <v>45345</v>
+      </c>
+      <c r="B1150" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1151" s="3">
+        <v>45346</v>
+      </c>
+      <c r="B1151" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1152" s="3">
+        <v>45347</v>
+      </c>
+      <c r="B1152" s="4">
+        <v>45.72</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1153" s="3">
+        <v>45348</v>
+      </c>
+      <c r="B1153" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1154" s="3">
+        <v>45349</v>
+      </c>
+      <c r="B1154" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1155" s="3">
+        <v>45350</v>
+      </c>
+      <c r="B1155" s="4">
+        <v>148.77000000000001</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1156" s="3">
+        <v>45351</v>
+      </c>
+      <c r="B1156" s="4">
+        <v>156.61000000000001</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1157" s="3">
+        <v>45352</v>
+      </c>
+      <c r="B1157" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1158" s="3">
+        <v>45353</v>
+      </c>
+      <c r="B1158" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1159" s="3">
+        <v>45354</v>
+      </c>
+      <c r="B1159" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1160" s="3">
+        <v>45355</v>
+      </c>
+      <c r="B1160" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1161" s="3">
+        <v>45356</v>
+      </c>
+      <c r="B1161" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1162" s="3">
+        <v>45357</v>
+      </c>
+      <c r="B1162" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1163" s="3">
+        <v>45358</v>
+      </c>
+      <c r="B1163" s="4">
+        <v>99.84</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1164" s="3">
+        <v>45359</v>
+      </c>
+      <c r="B1164" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1165" s="3">
+        <v>45360</v>
+      </c>
+      <c r="B1165" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1166" s="3">
+        <v>45361</v>
+      </c>
+      <c r="B1166" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1167" s="3">
+        <v>45362</v>
+      </c>
+      <c r="B1167" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1168" s="3">
+        <v>45363</v>
+      </c>
+      <c r="B1168" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1169" s="3">
+        <v>45364</v>
+      </c>
+      <c r="B1169" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1170" s="3">
+        <v>45365</v>
+      </c>
+      <c r="B1170" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1171" s="3">
+        <v>45366</v>
+      </c>
+      <c r="B1171" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1172" s="3">
+        <v>45367</v>
+      </c>
+      <c r="B1172" s="4">
+        <v>98.32</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1173" s="3">
+        <v>45368</v>
+      </c>
+      <c r="B1173" s="4">
+        <v>50.36</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1174" s="3">
+        <v>45369</v>
+      </c>
+      <c r="B1174" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1175" s="3">
+        <v>45370</v>
+      </c>
+      <c r="B1175" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1176" s="3">
+        <v>45371</v>
+      </c>
+      <c r="B1176" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1177" s="3">
+        <v>45372</v>
+      </c>
+      <c r="B1177" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1178" s="3">
+        <v>45373</v>
+      </c>
+      <c r="B1178" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1179" s="3">
+        <v>45374</v>
+      </c>
+      <c r="B1179" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1180" s="3">
+        <v>45375</v>
+      </c>
+      <c r="B1180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1181" s="3">
+        <v>45376</v>
+      </c>
+      <c r="B1181" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1182" s="3">
+        <v>45377</v>
+      </c>
+      <c r="B1182" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1183" s="3">
+        <v>45378</v>
+      </c>
+      <c r="B1183" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1184" s="3">
+        <v>45379</v>
+      </c>
+      <c r="B1184" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1185" s="3">
+        <v>45380</v>
+      </c>
+      <c r="B1185" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1186" s="3">
+        <v>45381</v>
+      </c>
+      <c r="B1186" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1187" s="3">
+        <v>45382</v>
+      </c>
+      <c r="B1187" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1188" s="3">
+        <v>45383</v>
+      </c>
+      <c r="B1188" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1189" s="3">
+        <v>45384</v>
+      </c>
+      <c r="B1189" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1190" s="3">
+        <v>45385</v>
+      </c>
+      <c r="B1190" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1191" s="3">
+        <v>45386</v>
+      </c>
+      <c r="B1191" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1192" s="3">
+        <v>45387</v>
+      </c>
+      <c r="B1192" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1193" s="3">
+        <v>45388</v>
+      </c>
+      <c r="B1193" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1194" s="3">
+        <v>45389</v>
+      </c>
+      <c r="B1194" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1195" s="3">
+        <v>45390</v>
+      </c>
+      <c r="B1195" s="4">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1196" s="3">
+        <v>45391</v>
+      </c>
+      <c r="B1196" s="4">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1197" s="3">
+        <v>45392</v>
+      </c>
+      <c r="B1197" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1198" s="3">
+        <v>45393</v>
+      </c>
+      <c r="B1198" s="4">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1199" s="3">
+        <v>45394</v>
+      </c>
+      <c r="B1199" s="4">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1200" s="3">
+        <v>45395</v>
+      </c>
+      <c r="B1200" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1201" s="3">
+        <v>45396</v>
+      </c>
+      <c r="B1201" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1202" s="3">
+        <v>45397</v>
+      </c>
+      <c r="B1202" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1203" s="3">
+        <v>45398</v>
+      </c>
+      <c r="B1203" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1204" s="3">
+        <v>45399</v>
+      </c>
+      <c r="B1204" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1205" s="3">
+        <v>45400</v>
+      </c>
+      <c r="B1205" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1206" s="3">
+        <v>45401</v>
+      </c>
+      <c r="B1206" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1207" s="3">
+        <v>45402</v>
+      </c>
+      <c r="B1207" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1208" s="3">
+        <v>45403</v>
+      </c>
+      <c r="B1208" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1209" s="3">
+        <v>45404</v>
+      </c>
+      <c r="B1209" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1210" s="3">
+        <v>45405</v>
+      </c>
+      <c r="B1210" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1211" s="3">
+        <v>45406</v>
+      </c>
+      <c r="B1211" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1212" s="3">
+        <v>45407</v>
+      </c>
+      <c r="B1212" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1213" s="3">
+        <v>45408</v>
+      </c>
+      <c r="B1213" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1214" s="3">
+        <v>45409</v>
+      </c>
+      <c r="B1214" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1215" s="3">
+        <v>45410</v>
+      </c>
+      <c r="B1215" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1216" s="3">
+        <v>45411</v>
+      </c>
+      <c r="B1216" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1217" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B1217" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1218" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B1218" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1219" s="3">
+        <v>45414</v>
+      </c>
+      <c r="B1219" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1220" s="3">
+        <v>45415</v>
+      </c>
+      <c r="B1220" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1221" s="3">
+        <v>45416</v>
+      </c>
+      <c r="B1221" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1222" s="3">
+        <v>45417</v>
+      </c>
+      <c r="B1222" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1223" s="3">
+        <v>45418</v>
+      </c>
+      <c r="B1223" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1224" s="3">
+        <v>45419</v>
+      </c>
+      <c r="B1224" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1225" s="3">
+        <v>45420</v>
+      </c>
+      <c r="B1225" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1226" s="3">
+        <v>45421</v>
+      </c>
+      <c r="B1226" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1227" s="3">
+        <v>45422</v>
+      </c>
+      <c r="B1227" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1228" s="3">
+        <v>45423</v>
+      </c>
+      <c r="B1228" s="4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1229" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B1229" s="4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1230" s="3">
+        <v>45425</v>
+      </c>
+      <c r="B1230" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1231" s="3">
+        <v>45426</v>
+      </c>
+      <c r="B1231" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1232" s="3">
+        <v>45427</v>
+      </c>
+      <c r="B1232" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1233" s="3">
+        <v>45428</v>
+      </c>
+      <c r="B1233" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1234" s="3">
+        <v>45429</v>
+      </c>
+      <c r="B1234" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1235" s="3">
+        <v>45430</v>
+      </c>
+      <c r="B1235" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1236" s="3">
+        <v>45431</v>
+      </c>
+      <c r="B1236" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1237" s="3">
+        <v>45432</v>
+      </c>
+      <c r="B1237" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1238" s="3">
+        <v>45433</v>
+      </c>
+      <c r="B1238" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1239" s="3">
+        <v>45434</v>
+      </c>
+      <c r="B1239" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1240" s="3">
+        <v>45435</v>
+      </c>
+      <c r="B1240" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1241" s="3">
+        <v>45436</v>
+      </c>
+      <c r="B1241" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1242" s="3">
+        <v>45437</v>
+      </c>
+      <c r="B1242" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1243" s="3">
+        <v>45438</v>
+      </c>
+      <c r="B1243" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1244" s="3">
+        <v>45439</v>
+      </c>
+      <c r="B1244" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1245" s="3">
+        <v>45440</v>
+      </c>
+      <c r="B1245" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1246" s="3">
+        <v>45441</v>
+      </c>
+      <c r="B1246" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1247" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B1247" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1248" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B1248" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1249" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B1249" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1250" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B1250" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1251" s="3">
+        <v>45446</v>
+      </c>
+      <c r="B1251" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1252" s="3">
+        <v>45447</v>
+      </c>
+      <c r="B1252" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1253" s="3">
+        <v>45448</v>
+      </c>
+      <c r="B1253" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1254" s="3">
+        <v>45449</v>
+      </c>
+      <c r="B1254" s="4">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1255" s="3">
+        <v>45450</v>
+      </c>
+      <c r="B1255" s="4">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1256" s="3">
+        <v>45451</v>
+      </c>
+      <c r="B1256" s="4">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1257" s="3">
+        <v>45452</v>
+      </c>
+      <c r="B1257" s="4">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1258" s="3">
+        <v>45453</v>
+      </c>
+      <c r="B1258" s="4">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1259" s="3">
+        <v>45454</v>
+      </c>
+      <c r="B1259" s="4">
+        <v>125.66</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1260" s="3">
+        <v>45455</v>
+      </c>
+      <c r="B1260" s="4">
+        <v>106.47</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1261" s="3">
+        <v>45456</v>
+      </c>
+      <c r="B1261" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1262" s="3">
+        <v>45457</v>
+      </c>
+      <c r="B1262" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1263" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B1263" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1264" s="3">
+        <v>45459</v>
+      </c>
+      <c r="B1264" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1265" s="3">
+        <v>45460</v>
+      </c>
+      <c r="B1265" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1266" s="3">
+        <v>45461</v>
+      </c>
+      <c r="B1266" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1267" s="3">
+        <v>45462</v>
+      </c>
+      <c r="B1267" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1268" s="3">
+        <v>45463</v>
+      </c>
+      <c r="B1268" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1269" s="3">
+        <v>45464</v>
+      </c>
+      <c r="B1269" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1270" s="3">
+        <v>45465</v>
+      </c>
+      <c r="B1270" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1271" s="3">
+        <v>45466</v>
+      </c>
+      <c r="B1271" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1272" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B1272" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1273" s="3">
+        <v>45468</v>
+      </c>
+      <c r="B1273" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1274" s="3">
+        <v>45469</v>
+      </c>
+      <c r="B1274" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1275" s="3">
+        <v>45470</v>
+      </c>
+      <c r="B1275" s="4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1276" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B1276" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1277" s="3">
+        <v>45472</v>
+      </c>
+      <c r="B1277" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1278" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B1278" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1279" s="3">
+        <v>45474</v>
+      </c>
+      <c r="B1279" s="4">
+        <v>148.66999999999999</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1280" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B1280" s="4">
+        <v>297.3</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1281" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B1281" s="4">
+        <v>296.3</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1282" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B1282" s="4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1283" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B1283" s="4">
+        <v>446.1</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1284" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B1284" s="4">
+        <v>1859.07</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1285" s="3">
+        <v>45480</v>
+      </c>
+      <c r="B1285" s="4">
+        <v>981.7</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1286" s="3">
+        <v>45481</v>
+      </c>
+      <c r="B1286" s="4">
+        <v>498.35</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1287" s="3">
+        <v>45482</v>
+      </c>
+      <c r="B1287" s="4">
+        <v>215.35</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1288" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B1288" s="4">
+        <v>118.77</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1289" s="3">
+        <v>45484</v>
+      </c>
+      <c r="B1289" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1290" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B1290" s="4">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1291" s="3">
+        <v>45486</v>
+      </c>
+      <c r="B1291" s="4">
+        <v>146.96</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1292" s="3">
+        <v>45487</v>
+      </c>
+      <c r="B1292" s="4">
+        <v>146.69</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1293" s="3">
+        <v>45488</v>
+      </c>
+      <c r="B1293" s="4">
+        <v>312.70999999999998</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1294" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B1294" s="4">
+        <v>407.63</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1295" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B1295" s="4">
+        <v>139.05000000000001</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1296" s="3">
+        <v>45491</v>
+      </c>
+      <c r="B1296" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1297" s="3">
+        <v>45492</v>
+      </c>
+      <c r="B1297" s="4">
+        <v>55.34</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1298" s="3">
+        <v>45493</v>
+      </c>
+      <c r="B1298" s="4">
+        <v>236.32</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1299" s="3">
+        <v>45494</v>
+      </c>
+      <c r="B1299" s="4">
+        <v>264.75</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1300" s="3">
+        <v>45495</v>
+      </c>
+      <c r="B1300" s="4">
+        <v>146.62</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1301" s="3">
+        <v>45496</v>
+      </c>
+      <c r="B1301" s="4">
+        <v>123.38</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1302" s="3">
+        <v>45497</v>
+      </c>
+      <c r="B1302" s="4">
+        <v>188.32</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1303" s="3">
+        <v>45498</v>
+      </c>
+      <c r="B1303" s="4">
+        <v>273.05</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1304" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B1304" s="4">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1305" s="3">
+        <v>45500</v>
+      </c>
+      <c r="B1305" s="4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1306" s="3">
+        <v>45501</v>
+      </c>
+      <c r="B1306" s="4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1307" s="3">
+        <v>45502</v>
+      </c>
+      <c r="B1307" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1308" s="3">
+        <v>45503</v>
+      </c>
+      <c r="B1308" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1309" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B1309" s="4">
+        <v>538.4</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1310" s="3">
+        <v>45505</v>
+      </c>
+      <c r="B1310" s="4">
+        <v>738.54</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1311" s="3">
+        <v>45506</v>
+      </c>
+      <c r="B1311" s="4">
+        <v>1582.57</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1312" s="3">
+        <v>45507</v>
+      </c>
+      <c r="B1312" s="4">
+        <v>1499.27</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1313" s="3">
+        <v>45508</v>
+      </c>
+      <c r="B1313" s="4">
+        <v>1829.59</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1314" s="3">
+        <v>45509</v>
+      </c>
+      <c r="B1314" s="4">
+        <v>6973.27</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1315" s="3">
+        <v>45510</v>
+      </c>
+      <c r="B1315" s="4">
+        <v>8398.27</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1316" s="3">
+        <v>45511</v>
+      </c>
+      <c r="B1316" s="4">
+        <v>4219.95</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1317" s="3">
+        <v>45512</v>
+      </c>
+      <c r="B1317" s="4">
+        <v>1651.91</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1318" s="3">
+        <v>45513</v>
+      </c>
+      <c r="B1318" s="4">
+        <v>965.42</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1319" s="3">
+        <v>45514</v>
+      </c>
+      <c r="B1319" s="4">
+        <v>706.62</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1320" s="3">
+        <v>45515</v>
+      </c>
+      <c r="B1320" s="4">
+        <v>411.47</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1321" s="3">
+        <v>45516</v>
+      </c>
+      <c r="B1321" s="4">
+        <v>230.32</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1322" s="3">
+        <v>45517</v>
+      </c>
+      <c r="B1322" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1323" s="3">
+        <v>45518</v>
+      </c>
+      <c r="B1323" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1324" s="3">
+        <v>45519</v>
+      </c>
+      <c r="B1324" s="4">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1325" s="3">
+        <v>45520</v>
+      </c>
+      <c r="B1325" s="4">
+        <v>1326.89</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1326" s="3">
+        <v>45521</v>
+      </c>
+      <c r="B1326" s="4">
+        <v>2248.5700000000002</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1327" s="3">
+        <v>45522</v>
+      </c>
+      <c r="B1327" s="4">
+        <v>785.57</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1328" s="3">
+        <v>45523</v>
+      </c>
+      <c r="B1328" s="4">
+        <v>424.38</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1329" s="3">
+        <v>45524</v>
+      </c>
+      <c r="B1329" s="4">
+        <v>1401.81</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1330" s="3">
+        <v>45525</v>
+      </c>
+      <c r="B1330" s="4">
+        <v>2855.33</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1331" s="3">
+        <v>45526</v>
+      </c>
+      <c r="B1331" s="4">
+        <v>2423.56</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1332" s="3">
+        <v>45527</v>
+      </c>
+      <c r="B1332" s="4">
+        <v>1108.1600000000001</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1333" s="3">
+        <v>45528</v>
+      </c>
+      <c r="B1333" s="4">
+        <v>2510.08</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1334" s="3">
+        <v>45529</v>
+      </c>
+      <c r="B1334" s="4">
+        <v>1531.29</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1335" s="3">
+        <v>45530</v>
+      </c>
+      <c r="B1335" s="4">
+        <v>259.8</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1336" s="3">
+        <v>45531</v>
+      </c>
+      <c r="B1336" s="4">
+        <v>167.21</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1337" s="3">
+        <v>45532</v>
+      </c>
+      <c r="B1337" s="4">
+        <v>521.41</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1338" s="3">
+        <v>45533</v>
+      </c>
+      <c r="B1338" s="4">
+        <v>744.05</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1339" s="3">
+        <v>45534</v>
+      </c>
+      <c r="B1339" s="4">
+        <v>1216.79</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1340" s="3">
+        <v>45535</v>
+      </c>
+      <c r="B1340" s="4">
+        <v>638.75</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1341" s="3">
+        <v>45536</v>
+      </c>
+      <c r="B1341" s="4">
+        <v>134.44</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1342" s="3">
+        <v>45537</v>
+      </c>
+      <c r="B1342" s="4">
+        <v>520.41999999999996</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1343" s="3">
+        <v>45538</v>
+      </c>
+      <c r="B1343" s="4">
+        <v>315.88</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1344" s="3">
+        <v>45539</v>
+      </c>
+      <c r="B1344" s="4">
+        <v>939.06</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1345" s="3">
+        <v>45540</v>
+      </c>
+      <c r="B1345" s="4">
+        <v>2472.66</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1346" s="3">
+        <v>45541</v>
+      </c>
+      <c r="B1346" s="4">
+        <v>852.26</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1347" s="3">
+        <v>45542</v>
+      </c>
+      <c r="B1347" s="4">
+        <v>712.42</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1348" s="3">
+        <v>45543</v>
+      </c>
+      <c r="B1348" s="4">
+        <v>439.7</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1349" s="3">
+        <v>45544</v>
+      </c>
+      <c r="B1349" s="4">
+        <v>328.1</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1350" s="3">
+        <v>45545</v>
+      </c>
+      <c r="B1350" s="4">
+        <v>328.62</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1351" s="3">
+        <v>45546</v>
+      </c>
+      <c r="B1351" s="4">
+        <v>204.79</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1352" s="3">
+        <v>45547</v>
+      </c>
+      <c r="B1352" s="4">
+        <v>160.63</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1353" s="3">
+        <v>45548</v>
+      </c>
+      <c r="B1353" s="4">
+        <v>139.41999999999999</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1354" s="3">
+        <v>45549</v>
+      </c>
+      <c r="B1354" s="4">
+        <v>303.76</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1355" s="3">
+        <v>45550</v>
+      </c>
+      <c r="B1355" s="4">
+        <v>253.48</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1356" s="3">
+        <v>45551</v>
+      </c>
+      <c r="B1356" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1357" s="3">
+        <v>45552</v>
+      </c>
+      <c r="B1357" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1358" s="3">
+        <v>45553</v>
+      </c>
+      <c r="B1358" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1359" s="3">
+        <v>45554</v>
+      </c>
+      <c r="B1359" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1360" s="3">
+        <v>45555</v>
+      </c>
+      <c r="B1360" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1361" s="3">
+        <v>45556</v>
+      </c>
+      <c r="B1361" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1362" s="3">
+        <v>45557</v>
+      </c>
+      <c r="B1362" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1363" s="3">
+        <v>45558</v>
+      </c>
+      <c r="B1363" s="4">
+        <v>504.54</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1364" s="3">
+        <v>45559</v>
+      </c>
+      <c r="B1364" s="4">
+        <v>732.67</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1365" s="3">
+        <v>45560</v>
+      </c>
+      <c r="B1365" s="4">
+        <v>249.33</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1366" s="3">
+        <v>45561</v>
+      </c>
+      <c r="B1366" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1367" s="3">
+        <v>45562</v>
+      </c>
+      <c r="B1367" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1368" s="3">
+        <v>45563</v>
+      </c>
+      <c r="B1368" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1369" s="3">
+        <v>45564</v>
+      </c>
+      <c r="B1369" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1370" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B1370" s="4">
+        <v>42.98</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1371" s="3">
+        <v>45566</v>
+      </c>
+      <c r="B1371" s="4">
+        <v>216.42</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1372" s="3">
+        <v>45567</v>
+      </c>
+      <c r="B1372" s="4">
+        <v>314.52999999999997</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1373" s="3">
+        <v>45568</v>
+      </c>
+      <c r="B1373" s="4">
+        <v>1003.97</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1374" s="3">
+        <v>45569</v>
+      </c>
+      <c r="B1374" s="4">
+        <v>2656.81</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1375" s="3">
+        <v>45570</v>
+      </c>
+      <c r="B1375" s="4">
+        <v>1983.88</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1376" s="3">
+        <v>45571</v>
+      </c>
+      <c r="B1376" s="4">
+        <v>671.43</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1377" s="3">
+        <v>45572</v>
+      </c>
+      <c r="B1377" s="4">
+        <v>720.37</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1378" s="3">
+        <v>45573</v>
+      </c>
+      <c r="B1378" s="4">
+        <v>1317.07</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1379" s="3">
+        <v>45574</v>
+      </c>
+      <c r="B1379" s="4">
+        <v>2719.31</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1380" s="3">
+        <v>45575</v>
+      </c>
+      <c r="B1380" s="4">
+        <v>3378.45</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1381" s="3">
+        <v>45576</v>
+      </c>
+      <c r="B1381" s="4">
+        <v>2281.08</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1382" s="3">
+        <v>45577</v>
+      </c>
+      <c r="B1382" s="4">
+        <v>688.89</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1383" s="3">
+        <v>45578</v>
+      </c>
+      <c r="B1383" s="4">
+        <v>524.13</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1384" s="3">
+        <v>45579</v>
+      </c>
+      <c r="B1384" s="4">
+        <v>381.13</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1385" s="3">
+        <v>45580</v>
+      </c>
+      <c r="B1385" s="4">
+        <v>308.95</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1386" s="3">
+        <v>45581</v>
+      </c>
+      <c r="B1386" s="4">
+        <v>355.62</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1387" s="3">
+        <v>45582</v>
+      </c>
+      <c r="B1387" s="4">
+        <v>220.09</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1388" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B1388" s="4">
+        <v>201.39</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1389" s="3">
+        <v>45584</v>
+      </c>
+      <c r="B1389" s="4">
+        <v>51.59</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1390" s="3">
+        <v>45585</v>
+      </c>
+      <c r="B1390" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1391" s="3">
+        <v>45586</v>
+      </c>
+      <c r="B1391" s="4">
+        <v>86.45</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1392" s="3">
+        <v>45587</v>
+      </c>
+      <c r="B1392" s="4">
+        <v>160.77000000000001</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1393" s="3">
+        <v>45588</v>
+      </c>
+      <c r="B1393" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1394" s="3">
+        <v>45589</v>
+      </c>
+      <c r="B1394" s="4">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1395" s="3">
+        <v>45590</v>
+      </c>
+      <c r="B1395" s="4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1396" s="3">
+        <v>45591</v>
+      </c>
+      <c r="B1396" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1397" s="3">
+        <v>45592</v>
+      </c>
+      <c r="B1397" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1398" s="3">
+        <v>45593</v>
+      </c>
+      <c r="B1398" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1399" s="3">
+        <v>45594</v>
+      </c>
+      <c r="B1399" s="4">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1400" s="3">
+        <v>45595</v>
+      </c>
+      <c r="B1400" s="4">
+        <v>118.11</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1401" s="3">
+        <v>45596</v>
+      </c>
+      <c r="B1401" s="4">
+        <v>156.99</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1402" s="3">
+        <v>45597</v>
+      </c>
+      <c r="B1402" s="4">
+        <v>144.34</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1403" s="3">
+        <v>45598</v>
+      </c>
+      <c r="B1403" s="4">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1404" s="3">
+        <v>45599</v>
+      </c>
+      <c r="B1404" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1405" s="3">
+        <v>45600</v>
+      </c>
+      <c r="B1405" s="4">
+        <v>151.44999999999999</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1406" s="3">
+        <v>45601</v>
+      </c>
+      <c r="B1406" s="4">
+        <v>258.98</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1407" s="3">
+        <v>45602</v>
+      </c>
+      <c r="B1407" s="4">
+        <v>228.46</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1408" s="3">
+        <v>45603</v>
+      </c>
+      <c r="B1408" s="4">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1409" s="3">
+        <v>45604</v>
+      </c>
+      <c r="B1409" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1410" s="3">
+        <v>45605</v>
+      </c>
+      <c r="B1410" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1411" s="3">
+        <v>45606</v>
+      </c>
+      <c r="B1411" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1412" s="3">
+        <v>45607</v>
+      </c>
+      <c r="B1412" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1413" s="3">
+        <v>45608</v>
+      </c>
+      <c r="B1413" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1414" s="3">
+        <v>45609</v>
+      </c>
+      <c r="B1414" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1415" s="3">
+        <v>45610</v>
+      </c>
+      <c r="B1415" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1416" s="3">
+        <v>45611</v>
+      </c>
+      <c r="B1416" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1417" s="3">
+        <v>45612</v>
+      </c>
+      <c r="B1417" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1418" s="3">
+        <v>45613</v>
+      </c>
+      <c r="B1418" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1419" s="3">
+        <v>45614</v>
+      </c>
+      <c r="B1419" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1420" s="3">
+        <v>45615</v>
+      </c>
+      <c r="B1420" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1421" s="3">
+        <v>45616</v>
+      </c>
+      <c r="B1421" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1422" s="3">
+        <v>45617</v>
+      </c>
+      <c r="B1422" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1423" s="3">
+        <v>45618</v>
+      </c>
+      <c r="B1423" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1424" s="3">
+        <v>45619</v>
+      </c>
+      <c r="B1424" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1425" s="3">
+        <v>45620</v>
+      </c>
+      <c r="B1425" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1426" s="3">
+        <v>45621</v>
+      </c>
+      <c r="B1426" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1427" s="3">
+        <v>45622</v>
+      </c>
+      <c r="B1427" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1428" s="3">
+        <v>45623</v>
+      </c>
+      <c r="B1428" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1429" s="3">
+        <v>45624</v>
+      </c>
+      <c r="B1429" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1430" s="3">
+        <v>45625</v>
+      </c>
+      <c r="B1430" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1431" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B1431" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1432" s="3">
+        <v>45627</v>
+      </c>
+      <c r="B1432" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1433" s="3">
+        <v>45628</v>
+      </c>
+      <c r="B1433" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1434" s="3">
+        <v>45629</v>
+      </c>
+      <c r="B1434" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1435" s="3">
+        <v>45630</v>
+      </c>
+      <c r="B1435" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1436" s="3">
+        <v>45631</v>
+      </c>
+      <c r="B1436" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1437" s="3">
+        <v>45632</v>
+      </c>
+      <c r="B1437" s="4">
+        <v>18.34</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1438" s="3">
+        <v>45633</v>
+      </c>
+      <c r="B1438" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1439" s="3">
+        <v>45634</v>
+      </c>
+      <c r="B1439" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1440" s="3">
+        <v>45635</v>
+      </c>
+      <c r="B1440" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1441" s="3">
+        <v>45636</v>
+      </c>
+      <c r="B1441" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1442" s="3">
+        <v>45637</v>
+      </c>
+      <c r="B1442" s="4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1443" s="3">
+        <v>45638</v>
+      </c>
+      <c r="B1443" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1444" s="3">
+        <v>45639</v>
+      </c>
+      <c r="B1444" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1445" s="3">
+        <v>45640</v>
+      </c>
+      <c r="B1445" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1446" s="3">
+        <v>45641</v>
+      </c>
+      <c r="B1446" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1447" s="3">
+        <v>45642</v>
+      </c>
+      <c r="B1447" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1448" s="3">
+        <v>45643</v>
+      </c>
+      <c r="B1448" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1449" s="3">
+        <v>45644</v>
+      </c>
+      <c r="B1449" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1450" s="3">
+        <v>45645</v>
+      </c>
+      <c r="B1450" s="4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1451" s="3">
+        <v>45646</v>
+      </c>
+      <c r="B1451" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1452" s="3">
+        <v>45647</v>
+      </c>
+      <c r="B1452" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1453" s="3">
+        <v>45648</v>
+      </c>
+      <c r="B1453" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1454" s="3">
+        <v>45649</v>
+      </c>
+      <c r="B1454" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1455" s="3">
+        <v>45650</v>
+      </c>
+      <c r="B1455" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1456" s="3">
+        <v>45651</v>
+      </c>
+      <c r="B1456" s="4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1457" s="3">
+        <v>45652</v>
+      </c>
+      <c r="B1457" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1458" s="3">
+        <v>45653</v>
+      </c>
+      <c r="B1458" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1459" s="3">
+        <v>45654</v>
+      </c>
+      <c r="B1459" s="4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1460" s="3">
+        <v>45655</v>
+      </c>
+      <c r="B1460" s="4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1461" s="3">
+        <v>45656</v>
+      </c>
+      <c r="B1461" s="4">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1462" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B1462" s="4">
+        <v>1.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
